--- a/fe_shares.xlsx
+++ b/fe_shares.xlsx
@@ -399,10 +399,10 @@
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>0.4979780952935</v>
+        <v>0.2429339657916</v>
       </c>
       <c r="E2">
-        <v>22.10149146066684</v>
+        <v>10.91049628598765</v>
       </c>
     </row>
     <row r="3">
@@ -420,10 +420,10 @@
         <v>2050</v>
       </c>
       <c r="D3">
-        <v>1.54942974023576</v>
+        <v>1.14486463855536</v>
       </c>
       <c r="E3">
-        <v>17.52363089684469</v>
+        <v>12.56346898790641</v>
       </c>
     </row>
     <row r="4">
@@ -441,10 +441,10 @@
         <v>2070</v>
       </c>
       <c r="D4">
-        <v>0.002674126903247</v>
+        <v>0.002351668415646</v>
       </c>
       <c r="E4">
-        <v>0.02145907481701434</v>
+        <v>0.01787984947886761</v>
       </c>
     </row>
     <row r="5">
@@ -462,10 +462,10 @@
         <v>2020</v>
       </c>
       <c r="D5">
-        <v>0.45296029226</v>
+        <v>0.42131614229</v>
       </c>
       <c r="E5">
-        <v>20.10349074793173</v>
+        <v>18.92188352790901</v>
       </c>
     </row>
     <row r="6">
@@ -483,10 +483,10 @@
         <v>2050</v>
       </c>
       <c r="D6">
-        <v>0.9611229568999999</v>
+        <v>0.7921739483</v>
       </c>
       <c r="E6">
-        <v>10.87004044509746</v>
+        <v>8.693126241590328</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>2070</v>
       </c>
       <c r="D7">
-        <v>0.11992816860146</v>
+        <v>0.07441068402697701</v>
       </c>
       <c r="E7">
-        <v>0.962387962800631</v>
+        <v>0.5657480540922492</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>2020</v>
       </c>
       <c r="D8">
-        <v>0.3665263528669</v>
+        <v>0.35870681557275</v>
       </c>
       <c r="E8">
-        <v>16.26734013917356</v>
+        <v>16.11001313180831</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         <v>2050</v>
       </c>
       <c r="D9">
-        <v>3.4270985946</v>
+        <v>3.6205522797</v>
       </c>
       <c r="E9">
-        <v>38.75955731282634</v>
+        <v>39.73106929261253</v>
       </c>
     </row>
     <row r="10">
@@ -567,10 +567,10 @@
         <v>2070</v>
       </c>
       <c r="D10">
-        <v>11.13184161125</v>
+        <v>11.33015945558</v>
       </c>
       <c r="E10">
-        <v>89.32972541314834</v>
+        <v>86.14375406393768</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>0.178591408725197</v>
+        <v>0.3848886850362001</v>
       </c>
       <c r="E11">
-        <v>7.926325539604359</v>
+        <v>17.2858766575626</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>2050</v>
       </c>
       <c r="D12">
-        <v>1.042783334978</v>
+        <v>1.6763659346535</v>
       </c>
       <c r="E12">
-        <v>11.79359721387223</v>
+        <v>18.39603628510847</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         <v>2070</v>
       </c>
       <c r="D13">
-        <v>0.134922984030865</v>
+        <v>0.64856247854308</v>
       </c>
       <c r="E13">
-        <v>1.082716906717322</v>
+        <v>4.931052106172934</v>
       </c>
     </row>
     <row r="14">
@@ -651,10 +651,10 @@
         <v>2020</v>
       </c>
       <c r="D14">
-        <v>0.00036735252975</v>
+        <v>0.00042195808582</v>
       </c>
       <c r="E14">
-        <v>0.01630400789926063</v>
+        <v>0.01895071408882731</v>
       </c>
     </row>
     <row r="15">
@@ -672,10 +672,10 @@
         <v>2050</v>
       </c>
       <c r="D15">
-        <v>0.17960797584688</v>
+        <v>0.18911072325944</v>
       </c>
       <c r="E15">
-        <v>2.031317582939396</v>
+        <v>2.075255560297961</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         <v>2070</v>
       </c>
       <c r="D16">
-        <v>0.923261483334</v>
+        <v>0.960305722992</v>
       </c>
       <c r="E16">
-        <v>7.408899414038747</v>
+        <v>7.301251174084203</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>2020</v>
       </c>
       <c r="D17">
-        <v>0.6628213895439999</v>
+        <v>0.678618274185</v>
       </c>
       <c r="E17">
-        <v>29.41764189912804</v>
+        <v>30.47767378255512</v>
       </c>
     </row>
     <row r="18">
@@ -735,10 +735,10 @@
         <v>2050</v>
       </c>
       <c r="D18">
-        <v>1.681902022709634</v>
+        <v>1.689579943021819</v>
       </c>
       <c r="E18">
-        <v>19.02185654841989</v>
+        <v>18.54104363248431</v>
       </c>
     </row>
     <row r="19">
@@ -756,10 +756,10 @@
         <v>2070</v>
       </c>
       <c r="D19">
-        <v>0.148891640372174</v>
+        <v>0.136828632033563</v>
       </c>
       <c r="E19">
-        <v>1.194811228477947</v>
+        <v>1.040314752234075</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>2020</v>
       </c>
       <c r="D20">
-        <v>0.0938976</v>
+        <v>0.139722</v>
       </c>
       <c r="E20">
-        <v>4.167406205596206</v>
+        <v>6.275105900088497</v>
       </c>
     </row>
     <row r="21">
@@ -798,10 +798,10 @@
         <v>2020</v>
       </c>
       <c r="D21">
-        <v>0.498289615289</v>
+        <v>0.2429339657916</v>
       </c>
       <c r="E21">
-        <v>22.63531426117</v>
+        <v>10.91049628598765</v>
       </c>
     </row>
     <row r="22">
@@ -819,10 +819,10 @@
         <v>2050</v>
       </c>
       <c r="D22">
-        <v>1.727874373764</v>
+        <v>1.302172875571</v>
       </c>
       <c r="E22">
-        <v>16.76563046524156</v>
+        <v>12.97272167530336</v>
       </c>
     </row>
     <row r="23">
@@ -840,10 +840,10 @@
         <v>2070</v>
       </c>
       <c r="D23">
-        <v>2.567284388351</v>
+        <v>2.307273772816</v>
       </c>
       <c r="E23">
-        <v>16.02799335442915</v>
+        <v>14.80170436930942</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         <v>2020</v>
       </c>
       <c r="D24">
-        <v>0.39844599226</v>
+        <v>0.42131614229</v>
       </c>
       <c r="E24">
-        <v>18.09981579824408</v>
+        <v>18.92188352790901</v>
       </c>
     </row>
     <row r="25">
@@ -882,10 +882,10 @@
         <v>2050</v>
       </c>
       <c r="D25">
-        <v>1.8692813735</v>
+        <v>1.779840757</v>
       </c>
       <c r="E25">
-        <v>18.13770793729052</v>
+        <v>17.7314235306872</v>
       </c>
     </row>
     <row r="26">
@@ -903,10 +903,10 @@
         <v>2070</v>
       </c>
       <c r="D26">
-        <v>2.8200255207</v>
+        <v>2.8341920752</v>
       </c>
       <c r="E26">
-        <v>17.60589925689235</v>
+        <v>18.18200931211966</v>
       </c>
     </row>
     <row r="27">
@@ -924,10 +924,10 @@
         <v>2020</v>
       </c>
       <c r="D27">
-        <v>0.3607776731698</v>
+        <v>0.35870681557275</v>
       </c>
       <c r="E27">
-        <v>16.38869396440415</v>
+        <v>16.11001313180831</v>
       </c>
     </row>
     <row r="28">
@@ -945,10 +945,10 @@
         <v>2050</v>
       </c>
       <c r="D28">
-        <v>2.7963779304</v>
+        <v>2.9456271626</v>
       </c>
       <c r="E28">
-        <v>27.13336092838359</v>
+        <v>29.34541339057392</v>
       </c>
     </row>
     <row r="29">
@@ -966,10 +966,10 @@
         <v>2070</v>
       </c>
       <c r="D29">
-        <v>4.42191154443</v>
+        <v>4.42167472052</v>
       </c>
       <c r="E29">
-        <v>27.60674632291948</v>
+        <v>28.36608416456231</v>
       </c>
     </row>
     <row r="30">
@@ -987,10 +987,10 @@
         <v>2020</v>
       </c>
       <c r="D30">
-        <v>0.186623885092039</v>
+        <v>0.3848886850362001</v>
       </c>
       <c r="E30">
-        <v>8.477580423282072</v>
+        <v>17.2858766575626</v>
       </c>
     </row>
     <row r="31">
@@ -1008,10 +1008,10 @@
         <v>2050</v>
       </c>
       <c r="D31">
-        <v>1.432837308961</v>
+        <v>1.728920823763</v>
       </c>
       <c r="E31">
-        <v>13.90287465547675</v>
+        <v>17.2241405623494</v>
       </c>
     </row>
     <row r="32">
@@ -1029,10 +1029,10 @@
         <v>2070</v>
       </c>
       <c r="D32">
-        <v>2.5017428850921</v>
+        <v>2.6620616979822</v>
       </c>
       <c r="E32">
-        <v>15.61880659528413</v>
+        <v>17.07775242393685</v>
       </c>
     </row>
     <row r="33">
@@ -1050,10 +1050,10 @@
         <v>2020</v>
       </c>
       <c r="D33">
-        <v>0.00037388328167</v>
+        <v>0.00042195808582</v>
       </c>
       <c r="E33">
-        <v>0.01698402960432881</v>
+        <v>0.01895071408882731</v>
       </c>
     </row>
     <row r="34">
@@ -1071,10 +1071,10 @@
         <v>2050</v>
       </c>
       <c r="D34">
-        <v>0.1625908976754</v>
+        <v>0.1613465122026</v>
       </c>
       <c r="E34">
-        <v>1.577625635768575</v>
+        <v>1.607392870295694</v>
       </c>
     </row>
     <row r="35">
@@ -1092,10 +1092,10 @@
         <v>2070</v>
       </c>
       <c r="D35">
-        <v>0.263950736295649</v>
+        <v>0.263891892988631</v>
       </c>
       <c r="E35">
-        <v>1.647889367628926</v>
+        <v>1.69292861189501</v>
       </c>
     </row>
     <row r="36">
@@ -1113,10 +1113,10 @@
         <v>2020</v>
       </c>
       <c r="D36">
-        <v>0.66292102739</v>
+        <v>0.678618274185</v>
       </c>
       <c r="E36">
-        <v>30.11386415630481</v>
+        <v>30.47767378255512</v>
       </c>
     </row>
     <row r="37">
@@ -1134,10 +1134,10 @@
         <v>2050</v>
       </c>
       <c r="D37">
-        <v>2.317088802825398</v>
+        <v>2.119868891783682</v>
       </c>
       <c r="E37">
-        <v>22.482800377839</v>
+        <v>21.11890797079043</v>
       </c>
     </row>
     <row r="38">
@@ -1155,10 +1155,10 @@
         <v>2070</v>
       </c>
       <c r="D38">
-        <v>3.442588374130133</v>
+        <v>3.098798391570024</v>
       </c>
       <c r="E38">
-        <v>21.49266510284597</v>
+        <v>19.87952111817675</v>
       </c>
     </row>
     <row r="39">
@@ -1176,10 +1176,10 @@
         <v>2020</v>
       </c>
       <c r="D39">
-        <v>0.0939494</v>
+        <v>0.139722</v>
       </c>
       <c r="E39">
-        <v>4.267747366990552</v>
+        <v>6.275105900088497</v>
       </c>
     </row>
   </sheetData>
